--- a/Inventory CSVs/BOM.xlsx
+++ b/Inventory CSVs/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Exlterra CAD 02\Documents\GitHub\pjbrich.github.io\Inventory CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FD8C7E1-6F4B-46E5-9766-E5CD9AC50F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63A151C-05BC-4005-B887-81D8A21A1AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3D827DE2-B4CE-46D6-9A3B-D24ECF860E4B}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:F250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inventory CSVs/BOM.xlsx
+++ b/Inventory CSVs/BOM.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Exlterra CAD 02\Documents\GitHub\pjbrich.github.io\Inventory CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63A151C-05BC-4005-B887-81D8A21A1AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B44879A-E1CE-42FE-B682-0E2F38695473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3D827DE2-B4CE-46D6-9A3B-D24ECF860E4B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3D827DE2-B4CE-46D6-9A3B-D24ECF860E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056EF89A-D480-48CC-B6E0-0BE81CBB117C}">
   <dimension ref="A1:F250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
